--- a/Data/Municipios3.xlsx
+++ b/Data/Municipios3.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdtorres\Documents\Homicide_Esri\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB79FA8-E8BB-4573-ACD9-FC93E02179E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718B3E09-3B8E-4F6A-B494-7E226DDC442D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="35" activeTab="35" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
     <sheet name="05368" sheetId="4" r:id="rId2"/>
-    <sheet name=" 05607" sheetId="5" r:id="rId3"/>
-    <sheet name="8832" sheetId="3" r:id="rId4"/>
+    <sheet name="05607" sheetId="5" r:id="rId3"/>
+    <sheet name="08832" sheetId="3" r:id="rId4"/>
     <sheet name="13222" sheetId="6" r:id="rId5"/>
     <sheet name="15377" sheetId="10" r:id="rId6"/>
     <sheet name="15667" sheetId="9" r:id="rId7"/>
@@ -32,14 +32,14 @@
     <sheet name="25885" sheetId="15" r:id="rId17"/>
     <sheet name="41298" sheetId="19" r:id="rId18"/>
     <sheet name="41306" sheetId="20" r:id="rId19"/>
-    <sheet name=" 41518" sheetId="21" r:id="rId20"/>
+    <sheet name="41518" sheetId="21" r:id="rId20"/>
     <sheet name="47460" sheetId="22" r:id="rId21"/>
     <sheet name="47798" sheetId="23" r:id="rId22"/>
     <sheet name="52207" sheetId="26" r:id="rId23"/>
-    <sheet name=" 52210" sheetId="27" r:id="rId24"/>
+    <sheet name="52210" sheetId="27" r:id="rId24"/>
     <sheet name="52323" sheetId="25" r:id="rId25"/>
     <sheet name="52385" sheetId="24" r:id="rId26"/>
-    <sheet name=" 54174" sheetId="30" r:id="rId27"/>
+    <sheet name="54174" sheetId="30" r:id="rId27"/>
     <sheet name="54599" sheetId="32" r:id="rId28"/>
     <sheet name="68169" sheetId="33" r:id="rId29"/>
     <sheet name="68255" sheetId="34" r:id="rId30"/>
@@ -6838,7 +6838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8802,7 +8802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C19"/>
     </sheetView>
   </sheetViews>

--- a/Data/Municipios3.xlsx
+++ b/Data/Municipios3.xlsx
@@ -8,49 +8,48 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdtorres\Documents\Homicide_Esri\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718B3E09-3B8E-4F6A-B494-7E226DDC442D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C58ABC3-A4F0-4723-A033-888904B56511}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="24" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="05368" sheetId="4" r:id="rId2"/>
-    <sheet name="05607" sheetId="5" r:id="rId3"/>
-    <sheet name="08832" sheetId="3" r:id="rId4"/>
-    <sheet name="13222" sheetId="6" r:id="rId5"/>
-    <sheet name="15377" sheetId="10" r:id="rId6"/>
-    <sheet name="15667" sheetId="9" r:id="rId7"/>
-    <sheet name="15686" sheetId="8" r:id="rId8"/>
-    <sheet name="15761" sheetId="7" r:id="rId9"/>
-    <sheet name="20310" sheetId="16" r:id="rId10"/>
-    <sheet name="27073" sheetId="17" r:id="rId11"/>
-    <sheet name="27450" sheetId="18" r:id="rId12"/>
-    <sheet name="23675" sheetId="11" r:id="rId13"/>
-    <sheet name="25649" sheetId="12" r:id="rId14"/>
-    <sheet name="25777" sheetId="13" r:id="rId15"/>
-    <sheet name="25862" sheetId="14" r:id="rId16"/>
-    <sheet name="25885" sheetId="15" r:id="rId17"/>
-    <sheet name="41298" sheetId="19" r:id="rId18"/>
-    <sheet name="41306" sheetId="20" r:id="rId19"/>
-    <sheet name="41518" sheetId="21" r:id="rId20"/>
-    <sheet name="47460" sheetId="22" r:id="rId21"/>
-    <sheet name="47798" sheetId="23" r:id="rId22"/>
-    <sheet name="52207" sheetId="26" r:id="rId23"/>
-    <sheet name="52210" sheetId="27" r:id="rId24"/>
-    <sheet name="52323" sheetId="25" r:id="rId25"/>
-    <sheet name="52385" sheetId="24" r:id="rId26"/>
-    <sheet name="54174" sheetId="30" r:id="rId27"/>
-    <sheet name="54599" sheetId="32" r:id="rId28"/>
-    <sheet name="68169" sheetId="33" r:id="rId29"/>
-    <sheet name="68255" sheetId="34" r:id="rId30"/>
-    <sheet name="68327" sheetId="35" r:id="rId31"/>
-    <sheet name="68820" sheetId="36" r:id="rId32"/>
-    <sheet name="73270" sheetId="37" r:id="rId33"/>
-    <sheet name="73504" sheetId="38" r:id="rId34"/>
-    <sheet name="73861" sheetId="39" r:id="rId35"/>
-    <sheet name="99773" sheetId="40" r:id="rId36"/>
+    <sheet name="05368" sheetId="4" r:id="rId1"/>
+    <sheet name="05607" sheetId="5" r:id="rId2"/>
+    <sheet name="08832" sheetId="3" r:id="rId3"/>
+    <sheet name="13222" sheetId="6" r:id="rId4"/>
+    <sheet name="15377" sheetId="10" r:id="rId5"/>
+    <sheet name="15667" sheetId="9" r:id="rId6"/>
+    <sheet name="15686" sheetId="8" r:id="rId7"/>
+    <sheet name="15761" sheetId="7" r:id="rId8"/>
+    <sheet name="20310" sheetId="16" r:id="rId9"/>
+    <sheet name="27073" sheetId="17" r:id="rId10"/>
+    <sheet name="27450" sheetId="18" r:id="rId11"/>
+    <sheet name="23675" sheetId="11" r:id="rId12"/>
+    <sheet name="25649" sheetId="12" r:id="rId13"/>
+    <sheet name="25777" sheetId="13" r:id="rId14"/>
+    <sheet name="25862" sheetId="14" r:id="rId15"/>
+    <sheet name="25885" sheetId="15" r:id="rId16"/>
+    <sheet name="41298" sheetId="19" r:id="rId17"/>
+    <sheet name="41306" sheetId="20" r:id="rId18"/>
+    <sheet name="41518" sheetId="21" r:id="rId19"/>
+    <sheet name="47460" sheetId="22" r:id="rId20"/>
+    <sheet name="47798" sheetId="23" r:id="rId21"/>
+    <sheet name="52207" sheetId="26" r:id="rId22"/>
+    <sheet name="52210" sheetId="27" r:id="rId23"/>
+    <sheet name="52323" sheetId="25" r:id="rId24"/>
+    <sheet name="52385" sheetId="24" r:id="rId25"/>
+    <sheet name="54174" sheetId="30" r:id="rId26"/>
+    <sheet name="54599" sheetId="32" r:id="rId27"/>
+    <sheet name="68169" sheetId="33" r:id="rId28"/>
+    <sheet name="68255" sheetId="34" r:id="rId29"/>
+    <sheet name="68327" sheetId="35" r:id="rId30"/>
+    <sheet name="68820" sheetId="36" r:id="rId31"/>
+    <sheet name="73270" sheetId="37" r:id="rId32"/>
+    <sheet name="73504" sheetId="38" r:id="rId33"/>
+    <sheet name="73861" sheetId="39" r:id="rId34"/>
+    <sheet name="99773" sheetId="40" r:id="rId35"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="40">
   <si>
     <t>SAN BERNARDO - CUNDINAMARCA - 25649</t>
   </si>
@@ -164,114 +163,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>CHITAGÁ 0 NORTE DE SANTANDER 0 54174</t>
-  </si>
-  <si>
-    <t>LA LLANADA 0 NARIÑO 0 52385</t>
-  </si>
-  <si>
-    <t>TUBARÁ 0 ATLÁNTICO 0 8832</t>
-  </si>
-  <si>
-    <t>JERICÓ 0 ANTIOQUIA 0 5368</t>
-  </si>
-  <si>
-    <t>RETIRO 0 ANTIOQUIA 0 05607</t>
-  </si>
-  <si>
-    <t>SOMONDOCO 0 BOYACÁ 015761</t>
-  </si>
-  <si>
-    <t>SANTANA 0 BOYACÁ 0 15686</t>
-  </si>
-  <si>
-    <t>CLEMENCIA 0 BOLÍVAR 0 13222</t>
-  </si>
-  <si>
-    <t>SAN JOSÉ DE PARE 0 BOYACÁ 015667</t>
-  </si>
-  <si>
-    <t>LABRANZAGRANDE 0 BOYACÁ 0 15377</t>
-  </si>
-  <si>
-    <t>SAN BERNARDO 0 CUNDINAMARCA 0 25649</t>
-  </si>
-  <si>
-    <t>SUPATA 0 CUNDINAMARCA 0 25777</t>
-  </si>
-  <si>
-    <t>YACOPÍ 0 CUNDINAMARCA 0 25885</t>
-  </si>
-  <si>
-    <t>SAN BERNARDO DEL VIENTO 0 CÓRDOBA 023675</t>
-  </si>
-  <si>
-    <t>VERGARA 0 CUNDINAMARCA 0 25862</t>
-  </si>
-  <si>
-    <t>MEDIO SAN JUAN 0 CHOCÓ 0 27450</t>
-  </si>
-  <si>
-    <t>GONZÁLEZ 0 CESAR 0 20310</t>
-  </si>
-  <si>
-    <t>BAGADÓ 0 CHOCÓ 0 27073</t>
-  </si>
-  <si>
-    <t>GARZON 0 HUILA 0 41298</t>
-  </si>
-  <si>
-    <t>GIGANTE 0 HUILA 0 41306</t>
-  </si>
-  <si>
-    <t>PAICOL 0 HUILA 0 41518</t>
-  </si>
-  <si>
-    <t>NUEVA GRANADA 0 MAGDALENA 0 47460</t>
-  </si>
-  <si>
-    <t>TENERIFE 0 MAGDALENA 0 47798</t>
-  </si>
-  <si>
-    <t>LA CRUZ 0 NARIÑO 052378</t>
-  </si>
-  <si>
-    <t>GULAMATÁN 0 NARIÑO 0 52323</t>
-  </si>
-  <si>
-    <t>RAGONVALIA 0 NORTE DE SANTANDER 0 54599</t>
-  </si>
-  <si>
-    <t>CONTADERO 0  NARIÑO 0 52210</t>
-  </si>
-  <si>
-    <t>CONSACA 0 NARIÑO 0 52207</t>
-  </si>
-  <si>
-    <t>TONA 0 SANTANDER 0 68820</t>
-  </si>
-  <si>
-    <t>EL PLAYÓN 0 SANTANDER 0 68255</t>
-  </si>
-  <si>
-    <t>CHARTA 0 SANTANDER 0 68169</t>
-  </si>
-  <si>
-    <t>GÜEPSA 0 SANTANDER 0 68327</t>
-  </si>
-  <si>
-    <t>ORTEGA 0 TOLIMA 0 73504</t>
-  </si>
-  <si>
-    <t>FALAN 0 TOLIMA 0 73270</t>
-  </si>
-  <si>
-    <t>VENADILLO 0 TOLIMA 073861</t>
-  </si>
-  <si>
-    <t>CUMARIBO 0 VICHADA 0 99773</t>
-  </si>
-  <si>
     <t>JERICÓ - ANTIOQUIA 0 5368</t>
   </si>
   <si>
@@ -311,27 +202,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -339,32 +218,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -690,587 +551,284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:C37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B7">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
-        <v>14</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="5">
-        <v>15</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
-        <v>16</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="5">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="5">
-        <v>18</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
-        <v>19</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="5">
-        <v>20</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="5">
-        <v>21</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="5">
-        <v>22</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="5">
-        <v>23</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="5">
-        <v>24</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="5">
-        <v>25</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="5">
-        <v>26</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="4">
-        <v>27</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="4">
-        <v>28</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="4">
-        <v>29</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="4">
-        <v>30</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="4">
-        <v>31</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="4">
-        <v>32</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="4">
-        <v>33</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="4">
-        <v>34</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="4">
-        <v>35</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="4">
-        <v>36</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>69</v>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B17">
-        <v>9</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -1542,7 +1100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -1821,7 +1379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -1838,7 +1396,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2099,7 +1657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -2380,7 +1938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -2658,7 +2216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -2675,7 +2233,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2939,7 +2497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -3214,7 +2772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -3491,11 +3049,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D17"/>
     </sheetView>
   </sheetViews>
@@ -3766,285 +3324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -4319,7 +3599,283 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -4595,7 +4151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -4870,7 +4426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -5142,7 +4698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -5417,7 +4973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -5689,7 +5245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -5961,7 +5517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -6235,7 +5791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -6251,7 +5807,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6273,7 +5829,7 @@
       <c r="A3" s="1">
         <v>2002</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3">
@@ -6287,7 +5843,7 @@
       <c r="A4" s="1">
         <v>2003</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>0</v>
       </c>
       <c r="C4">
@@ -6301,7 +5857,7 @@
       <c r="A5" s="1">
         <v>2004</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
       <c r="C5">
@@ -6315,7 +5871,7 @@
       <c r="A6" s="1">
         <v>2005</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>3</v>
       </c>
       <c r="C6">
@@ -6329,7 +5885,7 @@
       <c r="A7" s="1">
         <v>2006</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <v>0</v>
       </c>
       <c r="C7">
@@ -6343,7 +5899,7 @@
       <c r="A8" s="1">
         <v>2007</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <v>3</v>
       </c>
       <c r="C8">
@@ -6357,7 +5913,7 @@
       <c r="A9" s="1">
         <v>2008</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <v>0</v>
       </c>
       <c r="C9">
@@ -6371,7 +5927,7 @@
       <c r="A10" s="1">
         <v>2009</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="5">
         <v>7</v>
       </c>
       <c r="C10">
@@ -6385,7 +5941,7 @@
       <c r="A11" s="1">
         <v>2010</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="5">
         <v>1</v>
       </c>
       <c r="C11">
@@ -6399,7 +5955,7 @@
       <c r="A12" s="1">
         <v>2011</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="5">
         <v>1</v>
       </c>
       <c r="C12">
@@ -6413,7 +5969,7 @@
       <c r="A13" s="1">
         <v>2012</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="5">
         <v>0</v>
       </c>
       <c r="C13">
@@ -6427,7 +5983,7 @@
       <c r="A14" s="1">
         <v>2013</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="5">
         <v>0</v>
       </c>
       <c r="C14">
@@ -6441,7 +5997,7 @@
       <c r="A15" s="1">
         <v>2014</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="5">
         <v>0</v>
       </c>
       <c r="C15">
@@ -6455,7 +6011,7 @@
       <c r="A16" s="1">
         <v>2015</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="5">
         <v>0</v>
       </c>
       <c r="C16">
@@ -6469,7 +6025,7 @@
       <c r="A17" s="1">
         <v>2016</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="5">
         <v>0</v>
       </c>
       <c r="C17">
@@ -6483,7 +6039,7 @@
       <c r="A18" s="1">
         <v>2017</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="5">
         <v>1</v>
       </c>
       <c r="C18">
@@ -6497,7 +6053,7 @@
       <c r="A19" s="1">
         <v>2018</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="5">
         <v>1</v>
       </c>
       <c r="C19">
@@ -6508,28 +6064,28 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L23" s="7"/>
+      <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L24" s="7"/>
+      <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L25" s="7"/>
+      <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L26" s="7"/>
+      <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L27" s="7"/>
+      <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L28" s="7"/>
+      <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L29" s="7"/>
+      <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L30" s="7"/>
+      <c r="L30" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6537,7 +6093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -6552,7 +6108,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6574,7 +6130,7 @@
       <c r="A3" s="1">
         <v>2002</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <v>10</v>
       </c>
       <c r="C3">
@@ -6588,7 +6144,7 @@
       <c r="A4" s="1">
         <v>2003</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
       <c r="C4">
@@ -6602,7 +6158,7 @@
       <c r="A5" s="1">
         <v>2004</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>5</v>
       </c>
       <c r="C5">
@@ -6616,7 +6172,7 @@
       <c r="A6" s="1">
         <v>2005</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>0</v>
       </c>
       <c r="C6">
@@ -6630,7 +6186,7 @@
       <c r="A7" s="1">
         <v>2006</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7">
@@ -6644,7 +6200,7 @@
       <c r="A8" s="1">
         <v>2007</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>0</v>
       </c>
       <c r="C8">
@@ -6658,7 +6214,7 @@
       <c r="A9" s="1">
         <v>2008</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <v>1</v>
       </c>
       <c r="C9">
@@ -6672,7 +6228,7 @@
       <c r="A10" s="1">
         <v>2009</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>0</v>
       </c>
       <c r="C10">
@@ -6686,7 +6242,7 @@
       <c r="A11" s="1">
         <v>2010</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <v>0</v>
       </c>
       <c r="C11">
@@ -6700,7 +6256,7 @@
       <c r="A12" s="1">
         <v>2011</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="6">
         <v>0</v>
       </c>
       <c r="C12">
@@ -6714,7 +6270,7 @@
       <c r="A13" s="1">
         <v>2012</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="6">
         <v>0</v>
       </c>
       <c r="C13">
@@ -6728,7 +6284,7 @@
       <c r="A14" s="1">
         <v>2013</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="6">
         <v>0</v>
       </c>
       <c r="C14">
@@ -6742,7 +6298,7 @@
       <c r="A15" s="1">
         <v>2014</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="6">
         <v>1</v>
       </c>
       <c r="C15">
@@ -6756,7 +6312,7 @@
       <c r="A16" s="1">
         <v>2015</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="6">
         <v>1</v>
       </c>
       <c r="C16">
@@ -6770,7 +6326,7 @@
       <c r="A17" s="1">
         <v>2016</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="6">
         <v>1</v>
       </c>
       <c r="C17">
@@ -6784,7 +6340,7 @@
       <c r="A18" s="1">
         <v>2017</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="6">
         <v>0</v>
       </c>
       <c r="C18">
@@ -6798,7 +6354,7 @@
       <c r="A19" s="1">
         <v>2018</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="6">
         <v>0</v>
       </c>
       <c r="C19">
@@ -6809,308 +6365,32 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L24" s="6"/>
+      <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L25" s="6"/>
+      <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L26" s="6"/>
+      <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L27" s="6"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L28" s="6"/>
+      <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L29" s="6"/>
+      <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L30" s="6"/>
+      <c r="L30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -7126,7 +6406,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7148,7 +6428,7 @@
       <c r="A3" s="1">
         <v>2002</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>11</v>
       </c>
       <c r="C3">
@@ -7162,7 +6442,7 @@
       <c r="A4" s="1">
         <v>2003</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>0</v>
       </c>
       <c r="C4">
@@ -7176,7 +6456,7 @@
       <c r="A5" s="1">
         <v>2004</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>5</v>
       </c>
       <c r="C5">
@@ -7190,7 +6470,7 @@
       <c r="A6" s="1">
         <v>2005</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>6</v>
       </c>
       <c r="C6">
@@ -7204,7 +6484,7 @@
       <c r="A7" s="1">
         <v>2006</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <v>2</v>
       </c>
       <c r="C7">
@@ -7218,7 +6498,7 @@
       <c r="A8" s="1">
         <v>2007</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>3</v>
       </c>
       <c r="C8">
@@ -7232,7 +6512,7 @@
       <c r="A9" s="1">
         <v>2008</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>1</v>
       </c>
       <c r="C9">
@@ -7246,7 +6526,7 @@
       <c r="A10" s="1">
         <v>2009</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="7">
         <v>1</v>
       </c>
       <c r="C10">
@@ -7260,7 +6540,7 @@
       <c r="A11" s="1">
         <v>2010</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="7">
         <v>0</v>
       </c>
       <c r="C11">
@@ -7274,7 +6554,7 @@
       <c r="A12" s="1">
         <v>2011</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <v>3</v>
       </c>
       <c r="C12">
@@ -7288,7 +6568,7 @@
       <c r="A13" s="1">
         <v>2012</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="7">
         <v>0</v>
       </c>
       <c r="C13">
@@ -7302,7 +6582,7 @@
       <c r="A14" s="1">
         <v>2013</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="7">
         <v>4</v>
       </c>
       <c r="C14">
@@ -7316,7 +6596,7 @@
       <c r="A15" s="1">
         <v>2014</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="7">
         <v>2</v>
       </c>
       <c r="C15">
@@ -7330,7 +6610,7 @@
       <c r="A16" s="1">
         <v>2015</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="7">
         <v>1</v>
       </c>
       <c r="C16">
@@ -7344,7 +6624,7 @@
       <c r="A17" s="1">
         <v>2016</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="7">
         <v>8</v>
       </c>
       <c r="C17">
@@ -7358,7 +6638,7 @@
       <c r="A18" s="1">
         <v>2017</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="7">
         <v>4</v>
       </c>
       <c r="C18">
@@ -7372,7 +6652,7 @@
       <c r="A19" s="1">
         <v>2018</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="7">
         <v>0</v>
       </c>
       <c r="C19">
@@ -7383,1699 +6663,29 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L25" s="6"/>
+      <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L26" s="6"/>
+      <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L27" s="6"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L28" s="6"/>
+      <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L29" s="6"/>
+      <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L30" s="6"/>
+      <c r="L30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B3" s="11">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B4" s="11">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B5" s="11">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="11">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B7" s="11">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B8" s="11">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B9" s="11">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B10" s="11">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B11" s="11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B12" s="11">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="11">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B14" s="11">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B15" s="11">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="11">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="11">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="11">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B3" s="12">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B4" s="12">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B5" s="12">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="12">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B7" s="12">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B8" s="12">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B9" s="12">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B10" s="12">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B11" s="12">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B12" s="12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="12">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B14" s="12">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B15" s="12">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="12">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="12">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="12">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B3" s="13">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B4" s="13">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B5" s="13">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="13">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B7" s="13">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B8" s="13">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B9" s="13">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B10" s="13">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B11" s="13">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B12" s="13">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B14" s="13">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B15" s="13">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="13">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="13">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="13">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B3" s="14">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B4" s="14">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B5" s="14">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="14">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B7" s="14">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B8" s="14">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B9" s="14">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B10" s="14">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B11" s="14">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B12" s="14">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="14">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B14" s="14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="14">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="14">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="14">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B3" s="15">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B4" s="15">
-        <v>0</v>
-      </c>
-      <c r="C4" s="16">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B5" s="15">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="15">
-        <v>5</v>
-      </c>
-      <c r="C6" s="16">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B7" s="15">
-        <v>1</v>
-      </c>
-      <c r="C7" s="16">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B8" s="15">
-        <v>6</v>
-      </c>
-      <c r="C8" s="16">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B9" s="15">
-        <v>2</v>
-      </c>
-      <c r="C9" s="16">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B10" s="15">
-        <v>0</v>
-      </c>
-      <c r="C10" s="16">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B11" s="15">
-        <v>4</v>
-      </c>
-      <c r="C11" s="16">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B12" s="15">
-        <v>1</v>
-      </c>
-      <c r="C12" s="16">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="15">
-        <v>0</v>
-      </c>
-      <c r="C13" s="16">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B14" s="15">
-        <v>1</v>
-      </c>
-      <c r="C14" s="16">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B15" s="15">
-        <v>0</v>
-      </c>
-      <c r="C15" s="16">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="15">
-        <v>1</v>
-      </c>
-      <c r="C16" s="16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="15">
-        <v>2</v>
-      </c>
-      <c r="C17" s="16">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="15">
-        <v>2</v>
-      </c>
-      <c r="C18" s="16">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" s="16">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B3" s="16">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B4" s="16">
-        <v>0</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B5" s="16">
-        <v>3</v>
-      </c>
-      <c r="C5" s="16">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="16">
-        <v>3</v>
-      </c>
-      <c r="C6" s="16">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B7" s="16">
-        <v>14</v>
-      </c>
-      <c r="C7" s="16">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B8" s="16">
-        <v>19</v>
-      </c>
-      <c r="C8" s="16">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B9" s="16">
-        <v>31</v>
-      </c>
-      <c r="C9" s="16">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B10" s="16">
-        <v>14</v>
-      </c>
-      <c r="C10" s="16">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B11" s="16">
-        <v>10</v>
-      </c>
-      <c r="C11" s="16">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B12" s="16">
-        <v>3</v>
-      </c>
-      <c r="C12" s="16">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="16">
-        <v>12</v>
-      </c>
-      <c r="C13" s="16">
-        <v>22</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B14" s="16">
-        <v>7</v>
-      </c>
-      <c r="C14" s="16">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B15" s="16">
-        <v>4</v>
-      </c>
-      <c r="C15" s="16">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="16">
-        <v>5</v>
-      </c>
-      <c r="C16" s="16">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="16">
-        <v>2</v>
-      </c>
-      <c r="C17" s="16">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="16">
-        <v>2</v>
-      </c>
-      <c r="C18" s="16">
-        <v>11</v>
-      </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="16">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -9353,7 +6963,1677 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="9">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="9">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="9">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="10">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="10">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="11">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="11">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="11">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="11">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="11">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="11">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="11">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="12">
+        <v>5</v>
+      </c>
+      <c r="C6" s="13">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="12">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="12">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="12">
+        <v>4</v>
+      </c>
+      <c r="C11" s="13">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1</v>
+      </c>
+      <c r="C16" s="13">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="12">
+        <v>2</v>
+      </c>
+      <c r="C17" s="13">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="12">
+        <v>2</v>
+      </c>
+      <c r="C18" s="13">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="13">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="13">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="13">
+        <v>3</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="13">
+        <v>14</v>
+      </c>
+      <c r="C7" s="13">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="13">
+        <v>19</v>
+      </c>
+      <c r="C8" s="13">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="13">
+        <v>31</v>
+      </c>
+      <c r="C9" s="13">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="13">
+        <v>14</v>
+      </c>
+      <c r="C10" s="13">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="13">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="13">
+        <v>3</v>
+      </c>
+      <c r="C12" s="13">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="13">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="13">
+        <v>7</v>
+      </c>
+      <c r="C14" s="13">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="13">
+        <v>4</v>
+      </c>
+      <c r="C15" s="13">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="13">
+        <v>5</v>
+      </c>
+      <c r="C16" s="13">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="13">
+        <v>2</v>
+      </c>
+      <c r="C17" s="13">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="13">
+        <v>2</v>
+      </c>
+      <c r="C18" s="13">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -9411,7 +8691,7 @@
       <c r="C4">
         <v>7</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="13">
         <v>0</v>
       </c>
     </row>
@@ -9425,7 +8705,7 @@
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="13">
         <v>0</v>
       </c>
     </row>
@@ -9439,7 +8719,7 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="13">
         <v>0</v>
       </c>
     </row>
@@ -9453,7 +8733,7 @@
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="13">
         <v>0</v>
       </c>
     </row>
@@ -9467,7 +8747,7 @@
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="13">
         <v>0</v>
       </c>
     </row>
@@ -9481,7 +8761,7 @@
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="13">
         <v>0</v>
       </c>
     </row>
@@ -9495,7 +8775,7 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="13">
         <v>0</v>
       </c>
     </row>
@@ -9509,7 +8789,7 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="13">
         <v>0</v>
       </c>
     </row>
@@ -9523,7 +8803,7 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="13">
         <v>0</v>
       </c>
     </row>
@@ -9537,7 +8817,7 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="13">
         <v>0</v>
       </c>
     </row>
@@ -9551,7 +8831,7 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="13">
         <v>0</v>
       </c>
     </row>
@@ -9565,7 +8845,7 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -9579,7 +8859,7 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="13">
         <v>0</v>
       </c>
     </row>
@@ -9593,7 +8873,7 @@
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="13">
         <v>0</v>
       </c>
     </row>
@@ -9607,7 +8887,7 @@
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="13">
         <v>0</v>
       </c>
     </row>
@@ -9621,7 +8901,7 @@
       <c r="C19">
         <v>5</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="13">
         <v>0</v>
       </c>
     </row>
@@ -9631,7 +8911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -9909,7 +9189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -9926,7 +9206,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10187,7 +9467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -10468,7 +9748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -10485,7 +9765,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10744,4 +10024,279 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>